--- a/Progressive Ratio/PR Parser/Group Identifier.xlsx
+++ b/Progressive Ratio/PR Parser/Group Identifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\PR Parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evannewenhizen\Desktop\PR Test for Greg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA4BD1-BBB0-406D-AD61-CBC3832DB84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D71726-3C1D-48FB-97D4-95228924C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1815" windowWidth="21600" windowHeight="11145" xr2:uid="{D5CDE420-3622-42DB-97E6-6382E846A611}"/>
+    <workbookView xWindow="-25680" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D5CDE420-3622-42DB-97E6-6382E846A611}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,106 +34,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>JACK1</t>
-  </si>
-  <si>
-    <t>JACK2</t>
-  </si>
-  <si>
-    <t>JACK3</t>
-  </si>
-  <si>
-    <t>JACK4</t>
-  </si>
-  <si>
-    <t>DEL41</t>
-  </si>
-  <si>
-    <t>DEL42</t>
-  </si>
-  <si>
-    <t>DEL43</t>
-  </si>
-  <si>
-    <t>DEL44</t>
-  </si>
-  <si>
-    <t>DEL45</t>
-  </si>
-  <si>
-    <t>DEL46</t>
-  </si>
-  <si>
-    <t>DEL47</t>
-  </si>
-  <si>
-    <t>DEL48</t>
-  </si>
-  <si>
-    <t>DEL49</t>
-  </si>
-  <si>
-    <t>DEL50</t>
-  </si>
-  <si>
-    <t>DEL51</t>
-  </si>
-  <si>
-    <t>DEL52</t>
-  </si>
-  <si>
-    <t>BAR41</t>
-  </si>
-  <si>
-    <t>BAR42</t>
-  </si>
-  <si>
-    <t>BAR43</t>
-  </si>
-  <si>
-    <t>BAR44</t>
-  </si>
-  <si>
-    <t>BAR45</t>
-  </si>
-  <si>
-    <t>BAR46</t>
-  </si>
-  <si>
-    <t>BAR47</t>
-  </si>
-  <si>
-    <t>BAR48</t>
-  </si>
-  <si>
-    <t>BAR49</t>
-  </si>
-  <si>
-    <t>BAR50</t>
-  </si>
-  <si>
-    <t>BAR51</t>
-  </si>
-  <si>
-    <t>BAR52</t>
-  </si>
-  <si>
-    <t>&lt;----- These can be renamed to match your conditions (ex., column 1 = 'Vehicle' &amp; column 2 = 'NAME OF COMPOUND')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>MSxc</t>
+  </si>
+  <si>
+    <t>M2-4876</t>
+  </si>
+  <si>
+    <t>M2-4880</t>
+  </si>
+  <si>
+    <t>M2-4900</t>
+  </si>
+  <si>
+    <t>M2-4901</t>
+  </si>
+  <si>
+    <t>M2-4930</t>
+  </si>
+  <si>
+    <t>M2-4931</t>
+  </si>
+  <si>
+    <t>M2-4951</t>
+  </si>
+  <si>
+    <t>M2-4952</t>
+  </si>
+  <si>
+    <t>M2-4799</t>
+  </si>
+  <si>
+    <t>M2-4813</t>
+  </si>
+  <si>
+    <t>M2-4851</t>
+  </si>
+  <si>
+    <t>M2-4852</t>
+  </si>
+  <si>
+    <t>M2-4939</t>
+  </si>
+  <si>
+    <t>M2-4940</t>
+  </si>
+  <si>
+    <t>M2-4963</t>
+  </si>
+  <si>
+    <t>M2-4964</t>
+  </si>
+  <si>
+    <t>Training MSNS</t>
+  </si>
+  <si>
+    <t>Test MSNS</t>
+  </si>
+  <si>
+    <t>ProgressiveRatio_Exponential</t>
+  </si>
+  <si>
+    <t>FR5_Food Training</t>
+  </si>
+  <si>
+    <t>FR1_Food Training</t>
+  </si>
+  <si>
+    <t>FoodTraining_FR5_30minsess</t>
+  </si>
+  <si>
+    <t>FoodTraining_EXT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,9 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,139 +478,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5056B6-7862-4110-96E4-A2883B7752B0}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
